--- a/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/B3_B07_16.40_17.38/analysis_B3_B07_16.40_17.38.xlsx
+++ b/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/B3_B07_16.40_17.38/analysis_B3_B07_16.40_17.38.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total distance covered (in kilometers)</t>
+          <t>Total distance covered (km)</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -507,7 +507,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WH/KM</t>
+          <t>Total energy consumption(WH/KM)</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -517,7 +517,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total SOC consumed</t>
+          <t>Total SOC consumed(%)</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -544,7 +544,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Peak Power</t>
+          <t>Peak Power(kW)</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -554,7 +554,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Average Power</t>
+          <t>Average Power(kW)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -564,7 +564,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Total Energy Regenerated</t>
+          <t>Total Energy Regenerated(kWh)</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -574,7 +574,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Regenerative Effectiveness</t>
+          <t>Regenerative Effectiveness(kWh)</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -584,27 +584,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lowest Cell Voltage</t>
+          <t>Highest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.09</v>
+        <v>3.334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Highest Cell Voltage</t>
+          <t>Lowest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.334</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Difference in Cell Voltage</t>
+          <t>Difference in Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -614,7 +614,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Minimum Temperature</t>
+          <t>Minimum Temperature(C)</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -624,7 +624,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Maximum Temperature</t>
+          <t>Maximum Temperature(C)</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -634,17 +634,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Difference in Temperature</t>
+          <t>Difference in Temperature(C)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Maximum Fet Temperature</t>
+          <t>Maximum Fet Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -654,7 +654,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Maximum Afe Temperature</t>
+          <t>Maximum Afe Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -664,7 +664,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Maximum PCB Temperature</t>
+          <t>Maximum PCB Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -674,7 +674,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Maximum MCU Temperature</t>
+          <t>Maximum MCU Temperature(C)</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -684,7 +684,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Maximum Motor Temperature</t>
+          <t>Maximum Motor Temperature(C)</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -694,7 +694,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Abnormal Motor Temperature Detected</t>
+          <t>Abnormal Motor Temperature Detected(C)</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -704,7 +704,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>lowest cell temp</t>
+          <t>highest cell temp(C)</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -714,7 +714,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>highest cell temp</t>
+          <t>lowest cell temp(C)</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -724,7 +724,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC</t>
+          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC(C)</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -734,121 +734,131 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Maximum BMS Temperature in C</t>
+          <t>Battery Voltage(V)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Battery Voltage</t>
+          <t>Total energy charged(kWh)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.5</v>
+        <v>1.386001252777778</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Total energy charged in kWh</t>
+          <t>Electricity consumption units(kW)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1386001252777777</v>
+        <v>1.082373764390855e-07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Electricity consumption units in kW</t>
+          <t>Idling time percentage</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.082373764390855e-08</v>
+        <v>3.994024208055123</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Idling time percentage</t>
+          <t>Time spent in 0-10 km/h</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.481813469922864</v>
+        <v>23.91536327327053</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Time spent in 0-10 km/h</t>
+          <t>Time spent in 10-20 km/h</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>27.39717674319339</v>
+        <v>4.378182261654319</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Time spent in 10-20 km/h</t>
+          <t>Time spent in 20-30 km/h</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.381231135095582</v>
+        <v>8.856977346870332</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Time spent in 20-30 km/h</t>
+          <t>Time spent in 30-40 km/h</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.863075093752858</v>
+        <v>18.68044757462118</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Time spent in 30-40 km/h</t>
+          <t>Time spent in 40-50 km/h</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>18.69569194182749</v>
+        <v>14.79313393701027</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Time spent in 40-50 km/h</t>
+          <t>Time spent in 50-60 km/h</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.14375438275557</v>
+        <v>19.07984999542669</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Time spent in 50-60 km/h</t>
+          <t>Time spent in 60-70 km/h</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.1042409829568</v>
+        <v>5.884325741638465</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Time spent in 60-70 km/h</t>
+          <t>Time spent in 70-80 km/h</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5.902618982286045</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Time spent in 80-90 km/h</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/B3_B07_16.40_17.38/analysis_B3_B07_16.40_17.38.xlsx
+++ b/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/B3_B07_16.40_17.38/analysis_B3_B07_16.40_17.38.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total distance covered (in kilometers)</t>
+          <t>Total distance covered (km)</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -507,7 +507,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WH/KM</t>
+          <t>Total energy consumption(WH/KM)</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -517,7 +517,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total SOC consumed</t>
+          <t>Total SOC consumed(%)</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -544,7 +544,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Peak Power</t>
+          <t>Peak Power(kW)</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -554,7 +554,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Average Power</t>
+          <t>Average Power(kW)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -564,7 +564,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Total Energy Regenerated</t>
+          <t>Total Energy Regenerated(kWh)</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -574,37 +574,37 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Regenerative Effectiveness</t>
+          <t>Regenerative Effectiveness(%)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.108522701697714</v>
+        <v>4.108522701697714</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lowest Cell Voltage</t>
+          <t>Highest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.09</v>
+        <v>3.334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Highest Cell Voltage</t>
+          <t>Lowest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.334</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Difference in Cell Voltage</t>
+          <t>Difference in Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -614,7 +614,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Minimum Temperature</t>
+          <t>Minimum Temperature(C)</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -624,7 +624,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Maximum Temperature</t>
+          <t>Maximum Temperature(C)</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -634,17 +634,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Difference in Temperature</t>
+          <t>Difference in Temperature(C)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Maximum Fet Temperature</t>
+          <t>Maximum Fet Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -654,7 +654,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Maximum Afe Temperature</t>
+          <t>Maximum Afe Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -664,7 +664,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Maximum PCB Temperature</t>
+          <t>Maximum PCB Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -674,7 +674,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Maximum MCU Temperature</t>
+          <t>Maximum MCU Temperature(C)</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -684,7 +684,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Maximum Motor Temperature</t>
+          <t>Maximum Motor Temperature(C)</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -694,7 +694,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Abnormal Motor Temperature Detected</t>
+          <t>Abnormal Motor Temperature Detected(C)</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -704,7 +704,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>lowest cell temp</t>
+          <t>highest cell temp(C)</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -714,7 +714,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>highest cell temp</t>
+          <t>lowest cell temp(C)</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -724,7 +724,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC</t>
+          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC(C)</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -734,121 +734,131 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Maximum BMS Temperature in C</t>
+          <t>Battery Voltage(V)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Battery Voltage</t>
+          <t>Total energy charged(kWh)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.5</v>
+        <v>1.386001252777778</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Total energy charged in kWh</t>
+          <t>Electricity consumption units(kW)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1386001252777777</v>
+        <v>1.082373764390855e-07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Electricity consumption units in kW</t>
+          <t>Idling time percentage</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.082373764390855e-08</v>
+        <v>3.994024208055123</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Idling time percentage</t>
+          <t>Time spent in 0-10 km/h</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.481813469922864</v>
+        <v>23.91536327327053</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Time spent in 0-10 km/h</t>
+          <t>Time spent in 10-20 km/h</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>27.39717674319339</v>
+        <v>4.378182261654319</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Time spent in 10-20 km/h</t>
+          <t>Time spent in 20-30 km/h</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.381231135095582</v>
+        <v>8.856977346870332</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Time spent in 20-30 km/h</t>
+          <t>Time spent in 30-40 km/h</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.863075093752858</v>
+        <v>18.68044757462118</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Time spent in 30-40 km/h</t>
+          <t>Time spent in 40-50 km/h</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>18.69569194182749</v>
+        <v>14.79313393701027</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Time spent in 40-50 km/h</t>
+          <t>Time spent in 50-60 km/h</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.14375438275557</v>
+        <v>19.07984999542669</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Time spent in 50-60 km/h</t>
+          <t>Time spent in 60-70 km/h</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.1042409829568</v>
+        <v>5.884325741638465</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Time spent in 60-70 km/h</t>
+          <t>Time spent in 70-80 km/h</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5.902618982286045</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Time spent in 80-90 km/h</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/B3_B07_16.40_17.38/analysis_B3_B07_16.40_17.38.xlsx
+++ b/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/B3_B07_16.40_17.38/analysis_B3_B07_16.40_17.38.xlsx
@@ -574,11 +574,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Regenerative Effectiveness(kWh)</t>
+          <t>Regenerative Effectiveness(%)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.108522701697714</v>
+        <v>4.108522701697714</v>
       </c>
     </row>
     <row r="16">

--- a/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/B3_B07_16.40_17.38/analysis_B3_B07_16.40_17.38.xlsx
+++ b/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/B3_B07_16.40_17.38/analysis_B3_B07_16.40_17.38.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,110 +427,122 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Total time taken for the ride</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>0.04116934027777778</v>
+          <t>Date and Time</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2024-03-11 16:37:01.599000 to 2024-03-11 17:36:23.668000</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Actual Ampere-hours (Ah)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>25.20002277777778</v>
+          <t>Total time taken for the ride</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.04116934027777778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Actual Watt-hours (Wh)</t>
+          <t>Actual Ampere-hours (Ah)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1288.723236378611</v>
+        <v>25.20002277777778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Starting SoC (Ah)</t>
+          <t>Actual Watt-hours (Wh)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.279</v>
+        <v>1288.723236378611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ending SoC (Ah)</t>
+          <t>Starting SoC (Ah)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.818</v>
+        <v>38.279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Starting SoC (%)</t>
+          <t>Ending SoC (Ah)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96</v>
+        <v>12.818</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ending SoC (%)</t>
+          <t>Starting SoC (%)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total distance covered (km)</t>
+          <t>Ending SoC (%)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.11078368427709</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Total energy consumption(WH/KM)</t>
+          <t>Total distance covered (km)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41.4236828444123</v>
+        <v>31.11078368427709</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total SOC consumed(%)</t>
+          <t>Total energy consumption(WH/KM)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64</v>
+        <v>41.4236828444123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Total SOC consumed(%)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Mode</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Custom mode
 59.03%
@@ -541,160 +553,150 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Peak Power(kW)</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6127.99704</v>
-      </c>
-    </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Average Power(kW)</t>
+          <t>Peak Power(kW)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1311.306854427077</v>
+        <v>6127.99704</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Total Energy Regenerated(kWh)</t>
+          <t>Average Power(kW)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.21605070694445</v>
+        <v>-1311.306854427077</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Regenerative Effectiveness(%)</t>
+          <t>Total Energy Regenerated(kWh)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.108522701697714</v>
+        <v>55.21605070694445</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Highest Cell Voltage(V)</t>
+          <t>Regenerative Effectiveness(%)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.334</v>
+        <v>4.108522701697714</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lowest Cell Voltage(V)</t>
+          <t>Highest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.09</v>
+        <v>3.334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Difference in Cell Voltage(V)</t>
+          <t>Lowest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2440000000000002</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Minimum Temperature(C)</t>
+          <t>Difference in Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32</v>
+        <v>0.2440000000000002</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Maximum Temperature(C)</t>
+          <t>Minimum Temperature(C)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Difference in Temperature(C)</t>
+          <t>Maximum Temperature(C)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Maximum Fet Temperature-BMS(C)</t>
+          <t>Difference in Temperature(C)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Maximum Afe Temperature-BMS(C)</t>
+          <t>Maximum Fet Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Maximum PCB Temperature-BMS(C)</t>
+          <t>Maximum Afe Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Maximum MCU Temperature(C)</t>
+          <t>Maximum PCB Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Maximum Motor Temperature(C)</t>
+          <t>Maximum MCU Temperature(C)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Abnormal Motor Temperature Detected(C)</t>
+          <t>Maximum Motor Temperature(C)</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -704,160 +706,180 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>highest cell temp(C)</t>
+          <t>Abnormal Motor Temperature Detected(C)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>lowest cell temp(C)</t>
+          <t>highest cell temp(C)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC(C)</t>
+          <t>lowest cell temp(C)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>94</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Battery Voltage(V)</t>
+          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC(C)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Total energy charged(kWh)</t>
+          <t>Battery Voltage(V)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.386001252777778</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Electricity consumption units(kW)</t>
+          <t>Total energy charged(kWh)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.082373764390855e-07</v>
+        <v>1.386001252777778</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Idling time percentage</t>
+          <t>Electricity consumption units(kW)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.994024208055123</v>
+        <v>1.082373764390855e-07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Time spent in 0-10 km/h</t>
+          <t>Cycle Count of battery</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.91536327327053</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Time spent in 10-20 km/h</t>
+          <t>Idling time percentage</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.378182261654319</v>
+        <v>3.994024208055123</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Time spent in 20-30 km/h</t>
+          <t>Time spent in 0-10 km/h</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.856977346870332</v>
+        <v>23.91536327327053</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Time spent in 30-40 km/h</t>
+          <t>Time spent in 10-20 km/h</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>18.68044757462118</v>
+        <v>4.378182261654319</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Time spent in 40-50 km/h</t>
+          <t>Time spent in 20-30 km/h</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14.79313393701027</v>
+        <v>8.856977346870332</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Time spent in 50-60 km/h</t>
+          <t>Time spent in 30-40 km/h</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.07984999542669</v>
+        <v>18.68044757462118</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Time spent in 60-70 km/h</t>
+          <t>Time spent in 40-50 km/h</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.884325741638465</v>
+        <v>14.79313393701027</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Time spent in 70-80 km/h</t>
+          <t>Time spent in 50-60 km/h</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>19.07984999542669</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>Time spent in 60-70 km/h</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5.884325741638465</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Time spent in 70-80 km/h</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>Time spent in 80-90 km/h</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B45" t="n">
         <v>0</v>
       </c>
     </row>
